--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Spot-Check</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,149 +562,49 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>No GPS Return to Home failed</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Failed to take</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Please check the Compass installation and interference</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Compass installation and interference</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8-11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>AI Spot-Check</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,49 +562,149 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Compass Stuck Restart</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Contact DJI Support if this error persists after restarting</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Failed to take</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Please check the Compass installation and interference</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Compass installation and interference</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8-11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
